--- a/Tabella_Comparativa_Progetti.xlsx
+++ b/Tabella_Comparativa_Progetti.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxmi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxmi\Desktop\ESD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFDB398-64A7-4F4D-8520-A65B6A720C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD1D46F-7E3B-407E-A345-A008F41143CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73B0AFA6-7458-4BBF-B940-68AB29ED00ED}"/>
   </bookViews>
@@ -32,12 +32,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">NOME PROGETTO </t>
+  </si>
+  <si>
+    <t>ADC/DAC</t>
+  </si>
+  <si>
+    <t>TIM/PWM</t>
+  </si>
+  <si>
+    <t>I2C/SPI/UART</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>SW COMPLEXITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW COMPLEXITY </t>
+  </si>
+  <si>
+    <t>SI USANO SENSORI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULARE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. COMPONENTI </t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMART PLANT POT </t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBOTIC ARM </t>
+  </si>
+  <si>
+    <t>Automatic Wireless Health Monitoring System in Hospitals for Patients</t>
+  </si>
+  <si>
+    <t>MEDIUM/HIGH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -379,12 +446,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3D21E7-6E2F-438A-BED7-01E49B91D62E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>